--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>Topics</t>
   </si>
@@ -409,12 +409,140 @@
     <t>logic left to =&gt; symbol is condition of case
 logic right to =&gt; symbol is logic to be executed for that case</t>
   </si>
+  <si>
+    <t>go to sbt prompt</t>
+  </si>
+  <si>
+    <t>cmd&gt; sbt</t>
+  </si>
+  <si>
+    <t>What is Scala</t>
+  </si>
+  <si>
+    <t>Both functional programming and object oriented programming language</t>
+  </si>
+  <si>
+    <t>Scala has</t>
+  </si>
+  <si>
+    <t>1. objects, classes, inheritance, polymorphism, composition etc
+2. Everything is an object in Scala. There are no primitive types</t>
+  </si>
+  <si>
+    <t>Scala compiler</t>
+  </si>
+  <si>
+    <t>scalac</t>
+  </si>
+  <si>
+    <t>what scala compiler</t>
+  </si>
+  <si>
+    <t>just like java compiler, produces .class file from .scala file that can be executed directly in JVM</t>
+  </si>
+  <si>
+    <t>Scala syntaxes</t>
+  </si>
+  <si>
+    <t>Open scala REPL</t>
+  </si>
+  <si>
+    <t>cmd&gt; scala</t>
+  </si>
+  <si>
+    <t>Microsoft Windows [Version 10.0.14393]
+(c) 2016 Microsoft Corporation. All rights reserved.
+C:\Users\Admin&gt;scala
+Welcome to Scala 2.12.1 (Java HotSpot(TM) 64-Bit Server VM, Java 1.8.0_65).
+Type in expressions for evaluation. Or try :help.
+scala&gt;</t>
+  </si>
+  <si>
+    <t>scala&gt; val name: String = "Scala"
+name: String = Scala
+scala&gt; println(name)
+Scala</t>
+  </si>
+  <si>
+    <t>declare value variable (val is key word to create constant)</t>
+  </si>
+  <si>
+    <t>declare variable</t>
+  </si>
+  <si>
+    <t>scala&gt; var language: String = "Java"
+language: String = Java
+scala&gt; println(language)
+Java</t>
+  </si>
+  <si>
+    <t>scala&gt; val a = "name1"
+a: String = name1
+scala&gt; println(a)
+name1</t>
+  </si>
+  <si>
+    <t>simcolon is not mandatory</t>
+  </si>
+  <si>
+    <t>def add(arg0: String, arg1: Int): Int</t>
+  </si>
+  <si>
+    <t>last Int</t>
+  </si>
+  <si>
+    <t>return type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>scala&gt; def add(val1: Int, val2: Int): Int = return val1 + val2;
+add: (val1: Int, val2: Int)Int
+scala&gt; add(10,20)
+res3: Int = 30</t>
+  </si>
+  <si>
+    <t>function/method starts with def key word. Types of arguments are mandatory. Example</t>
+  </si>
+  <si>
+    <t>scala&gt; def multiply(val1: Int, val2: Int): Int = {
+     | val1 * val2
+     | }
+multiply: (val1: Int, val2: Int)Int
+scala&gt; multiply(10,20)
+res4: Int = 200</t>
+  </si>
+  <si>
+    <t>Multiply method. Mind the equal symbol</t>
+  </si>
+  <si>
+    <t>operator overloading</t>
+  </si>
+  <si>
+    <t>def *(val: Double): Double = { ---- }</t>
+  </si>
+  <si>
+    <t>Infix notation in REPL (giving the warning but working)</t>
+  </si>
+  <si>
+    <t>scala&gt; 35 toString
+&lt;console&gt;:12: warning: postfix operator toString should be enabled
+by making the implicit value scala.language.postfixOps visible.
+This can be achieved by adding the import clause 'import scala.language.postfixOps'
+or by setting the compiler option -language:postfixOps.
+See the Scaladoc for value scala.language.postfixOps for a discussion
+why the feature should be explicitly enabled.
+       35 toString
+          ^
+res5: String = 35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +582,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,11 +680,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,8 +689,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,16 +701,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -880,24 +1029,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:A53"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="1" max="1" width="69" style="2" customWidth="1"/>
     <col min="2" max="2" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -908,7 +1057,7 @@
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -916,7 +1065,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -924,7 +1073,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -932,7 +1081,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -940,61 +1089,61 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="90">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1002,300 +1151,432 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" s="3" customFormat="1">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="195">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:2" ht="195">
+      <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="165">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:2" ht="165">
+      <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="11" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="11"/>
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="12" t="s">
+    <row r="53" spans="1:2" ht="75">
+      <c r="A53" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="12"/>
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="120">
+      <c r="B61" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="75">
+      <c r="A62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="75">
+      <c r="A63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="75">
+      <c r="A64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="75">
+      <c r="A67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="150">
+      <c r="A70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
+  <mergeCells count="8">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Topics"/>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -527,12 +527,9 @@
   </si>
   <si>
     <t>scala&gt; 35 toString
-&lt;console&gt;:12: warning: postfix operator toString should be enabled
-by making the implicit value scala.language.postfixOps visible.
-This can be achieved by adding the import clause 'import scala.language.postfixOps'
-or by setting the compiler option -language:postfixOps.
-See the Scaladoc for value scala.language.postfixOps for a discussion
-why the feature should be explicitly enabled.
+&lt;console&gt;:12: warning: postfix operator toString should be enabled by making the implicit value scala.language.postfixOps visible.
+This can be achieved by adding the import clause 'import scala.language.postfixOps' or by setting the compiler option                                 -language:postfixOps.
+See the Scaladoc for value scala.language.postfixOps for a discussion why the feature should be explicitly enabled.
        35 toString
           ^
 res5: String = 35</t>
@@ -680,7 +677,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -695,15 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -711,13 +699,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,8 +1035,8 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,7 +1046,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1051,10 +1054,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1100,7 +1103,7 @@
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1113,7 +1116,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1121,13 +1124,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1135,7 +1138,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1159,201 +1162,201 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="3" customFormat="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="10"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="195">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1369,201 +1372,201 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="165">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="5"/>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="13"/>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="75">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="75">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="75">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="105">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="150">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:2" ht="135">
+      <c r="A70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="8" t="s">
         <v>123</v>
       </c>
     </row>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>Topics</t>
   </si>
@@ -533,6 +533,158 @@
        35 toString
           ^
 res5: String = 35</t>
+  </si>
+  <si>
+    <t>Hello World in Java</t>
+  </si>
+  <si>
+    <t>public class HelloJava {
+    public static void main(String[] args) {
+        System.out.println("Hello World!");
+    }
+}</t>
+  </si>
+  <si>
+    <t>Hello World in Scala</t>
+  </si>
+  <si>
+    <t>object HelloScala {
+    def main(args: Array[String]): Unit = {
+        println("Hello World!")
+    }
+}</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt; list = new ArrayList&lt;String&gt;();
+list.add("1");
+list.add("2");
+list.add("3");</t>
+  </si>
+  <si>
+    <t>Scala list</t>
+  </si>
+  <si>
+    <t>val list = List("1", "2", "3")</t>
+  </si>
+  <si>
+    <t>java list</t>
+  </si>
+  <si>
+    <t>Java - convert list of strings to list of integers</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt; ints = new ArrayList&lt;Integer&gt;();
+for (String s : list) {
+    ints.add(Integer.parseInt(s));
+}</t>
+  </si>
+  <si>
+    <t>Scala - convert list of strings to list of integers</t>
+  </si>
+  <si>
+    <t>val ints = list.map(s =&gt; s.toInt)</t>
+  </si>
+  <si>
+    <t>java - pojos</t>
+  </si>
+  <si>
+    <t>public class User {
+    private String name;
+    private List&lt;Order&gt; orders;
+    public User() {
+        orders = new ArrayList&lt;Order&gt;();
+    }
+    // setters and getters
+}</t>
+  </si>
+  <si>
+    <t>public class Order {
+    private int id;
+    private List&lt;Product&gt; products;
+    public Order() {
+        products = new ArrayList&lt;Product&gt;();
+    }
+   // setters and getters
+}</t>
+  </si>
+  <si>
+    <t>public class Product {
+    private int id;
+    private String category;
+    //setters and getters
+}</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>class User {
+    var name: String = _
+    var orders: List[Order] = Nil
+}
+class Order {
+    var id: Int = _
+    var products: List[Product] = Nil
+}
+class Product {
+    var id: Int = _
+    var category: String = _
+}</t>
+  </si>
+  <si>
+    <t>class User {
+    private var _name: String = _
+    var orders: List[Order] = Nil
+    def name = _name
+    def name_=(name: String) = {
+        if (name == null) {
+            throw new NullPointerException("User.name cannot be null!")
+        }
+        _name = name
+    }</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>tuples</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>macros</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>value variable</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>java - order contains products - create list of specific category products</t>
+  </si>
+  <si>
+    <t>public List&lt;Product&gt; getProductsByCategory(String category) {
+    List&lt;Product&gt; products = new ArrayList&lt;Product&gt;();
+    for (Order order : orders) {
+        for (Product product : order.getProducts()) {
+            if (category.equals(product.getCategory())) {
+                products.add(product);
+            }
+        }
+    }
+    return products;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scala </t>
+  </si>
+  <si>
+    <t>def productsByCategory(category: String) = orders.flatMap(o =&gt; o.products).filter(p =&gt; p.category == category)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +829,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -697,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,26 +1172,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1054,10 +1247,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1116,7 +1309,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1124,7 +1317,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1355,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1170,7 +1363,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1393,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1208,7 +1401,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1519,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1334,7 +1527,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
@@ -1412,7 +1605,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1420,7 +1613,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="10"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
@@ -1434,7 +1627,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -1442,7 +1635,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
@@ -1480,10 +1673,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
@@ -1570,8 +1763,106 @@
         <v>123</v>
       </c>
     </row>
+    <row r="71" spans="1:2" ht="75">
+      <c r="A71" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75">
+      <c r="A72" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="60">
+      <c r="A73" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="150">
+      <c r="A77" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="135">
+      <c r="A78" s="15"/>
+      <c r="B78" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="15"/>
+      <c r="B79" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="210">
+      <c r="A80" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="150">
+      <c r="B81" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="165">
+      <c r="A82" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A53:A54"/>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>Topics</t>
   </si>
@@ -685,6 +685,48 @@
   </si>
   <si>
     <t>def productsByCategory(category: String) = orders.flatMap(o =&gt; o.products).filter(p =&gt; p.category == category)</t>
+  </si>
+  <si>
+    <t>Why Scala than Java</t>
+  </si>
+  <si>
+    <t>1. Scala is Object Oriented
+2. Scala is Functional
+3. Scala is statically Typed
+4. Scala runs on JVM
+5. Scala can execute Java Code
+6. Scala can do concurrent and synchronize processing</t>
+  </si>
+  <si>
+    <t>Scala Vs Java</t>
+  </si>
+  <si>
+    <t>All types are objects
+Type inference
+Nested Functions
+Functions are objects
+Domain specific language (DSL) support
+Traits
+Closures
+Concurrency support inspired by Erlang</t>
+  </si>
+  <si>
+    <t>Scala web frameworks</t>
+  </si>
+  <si>
+    <t>The Lift Framework
+The Play framework
+The Bowler framework</t>
+  </si>
+  <si>
+    <t>Scala built in operators</t>
+  </si>
+  <si>
+    <t>1. Arithmetic operators
+2. Assignment operators
+3. Bitwise operators
+4. Logical operators
+5. Relational operators</t>
   </si>
 </sst>
 </file>
@@ -829,7 +871,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -856,6 +898,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,9 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1225,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1247,10 +1295,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1309,7 +1357,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1317,7 +1365,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1403,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1363,7 +1411,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1441,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1401,7 +1449,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1567,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1527,7 +1575,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="15"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
@@ -1605,7 +1653,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1613,7 +1661,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
@@ -1627,7 +1675,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -1635,7 +1683,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="12"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
@@ -1673,10 +1721,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
@@ -1812,7 +1860,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="150">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -1820,13 +1868,13 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="135">
-      <c r="A78" s="15"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="15"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="9" t="s">
         <v>139</v>
       </c>
@@ -1858,6 +1906,38 @@
       </c>
       <c r="B83" s="9" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="90">
+      <c r="A84" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="120">
+      <c r="A85" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45">
+      <c r="A86" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="75">
+      <c r="A87" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
   <si>
     <t>Topics</t>
   </si>
@@ -727,6 +727,15 @@
 3. Bitwise operators
 4. Logical operators
 5. Relational operators</t>
+  </si>
+  <si>
+    <t>Scala Collections</t>
+  </si>
+  <si>
+    <t>Scala has a rich set of collection library. Collections are containers of things. Those containers can be sequenced, linear sets of items like List, Tuple, Option, Map, etc. The collections may have an arbitrary number of elements or be bounded to zero or one element (e.g., Option).
+Collections may be strict or lazy. Lazy collections have elements that may not consume memory until they are accessed, like Ranges. Additionally, collections may be mutable (the contents of the reference can change) or immutable (the thing that a reference refers to is never changed). Note that immutable collections may contain mutable items.
+For some problems, mutable collections work better, and for others, immutable collections work better. When in doubt, it is better to start with an immutable collection and change it later if you need mutable ones.
+This chapter throws light on the most commonly used collection types and most frequently used operations over those collections.</t>
   </si>
 </sst>
 </file>
@@ -871,7 +880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -891,6 +900,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,11 +1285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1295,10 +1307,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1357,7 +1369,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1365,7 +1377,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1403,7 +1415,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1411,7 +1423,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1453,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1449,7 +1461,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1579,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1575,7 +1587,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
@@ -1653,7 +1665,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1661,7 +1673,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
@@ -1675,7 +1687,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -1683,7 +1695,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
@@ -1721,10 +1733,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
@@ -1860,7 +1872,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="150">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -1868,13 +1880,13 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="135">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="9" t="s">
         <v>139</v>
       </c>
@@ -1938,6 +1950,14 @@
       </c>
       <c r="B87" s="11" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="150">
+      <c r="A88" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="222">
   <si>
     <t>Topics</t>
   </si>
@@ -644,25 +644,7 @@
     }</t>
   </si>
   <si>
-    <t>Traits</t>
-  </si>
-  <si>
-    <t>tuples</t>
-  </si>
-  <si>
     <t>functions</t>
-  </si>
-  <si>
-    <t>macros</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>value variable</t>
-  </si>
-  <si>
-    <t>variable</t>
   </si>
   <si>
     <t>java - order contains products - create list of specific category products</t>
@@ -736,6 +718,210 @@
 Collections may be strict or lazy. Lazy collections have elements that may not consume memory until they are accessed, like Ranges. Additionally, collections may be mutable (the contents of the reference can change) or immutable (the thing that a reference refers to is never changed). Note that immutable collections may contain mutable items.
 For some problems, mutable collections work better, and for others, immutable collections work better. When in doubt, it is better to start with an immutable collection and change it later if you need mutable ones.
 This chapter throws light on the most commonly used collection types and most frequently used operations over those collections.</t>
+  </si>
+  <si>
+    <t>Value classes</t>
+  </si>
+  <si>
+    <t>Value classes are new mechanism in Scala to avoid allocating runtime objects. It contains a primary constructor with exactly one val parameter. It contains only methods (def) not allowed var, val, nested classes, traits, or objects. Value class cannot be extended by another class. This can be possible by extending your value class with AnyVal. The typesafety of custom datatypes without the runtime overhead</t>
+  </si>
+  <si>
+    <t>A value class not allowed to extend traits. To permit value classes to extend traits, universal traits are introduced which extends for Any.</t>
+  </si>
+  <si>
+    <t>When to Use Traits</t>
+  </si>
+  <si>
+    <t>If the behavior will not be reused, then make it a concrete class. It is not reusable behavior after all.
+If it might be reused in multiple, unrelated classes, make it a trait. Only traits can be mixed into different parts of the class hierarchy.
+If you want to inherit from it in Java code, use an abstract class.
+If you plan to distribute it in compiled form, and you expect outside groups to write classes inheriting from it, you might lean towards using an abstract class.
+If efficiency is very important, lean towards using a class</t>
+  </si>
+  <si>
+    <t>Scala libraries</t>
+  </si>
+  <si>
+    <t>Lift, Play, Bowler, Akka, Scalaz, Scalatra, specs2</t>
+  </si>
+  <si>
+    <t>AnyVal</t>
+  </si>
+  <si>
+    <t>Byte, Short, Int, Char, Float, Double, Long,  Boolean, Unit all inherits from AnyVal</t>
+  </si>
+  <si>
+    <t>scala.AnyRef</t>
+  </si>
+  <si>
+    <t>all java classes, all scala classes</t>
+  </si>
+  <si>
+    <t>scala.Null</t>
+  </si>
+  <si>
+    <t>scala.Nothing</t>
+  </si>
+  <si>
+    <t>sub class of scala.AnyRef</t>
+  </si>
+  <si>
+    <t>sub class of scala.Any</t>
+  </si>
+  <si>
+    <t>Scala Topics</t>
+  </si>
+  <si>
+    <t>variables - val</t>
+  </si>
+  <si>
+    <t>variables - var</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>import statements</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>traits</t>
+  </si>
+  <si>
+    <t>access modifiers/specifiers</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>mixins</t>
+  </si>
+  <si>
+    <t>functions - higher order functions</t>
+  </si>
+  <si>
+    <t>functions - currying functions</t>
+  </si>
+  <si>
+    <t>functions - passing function as argument</t>
+  </si>
+  <si>
+    <t>functions - defining functions with in functions</t>
+  </si>
+  <si>
+    <t>while loop</t>
+  </si>
+  <si>
+    <t>for loop</t>
+  </si>
+  <si>
+    <t>do while loop</t>
+  </si>
+  <si>
+    <t>collections - List</t>
+  </si>
+  <si>
+    <t>collections - Set</t>
+  </si>
+  <si>
+    <t>collections - Map</t>
+  </si>
+  <si>
+    <t>collections - Iterator</t>
+  </si>
+  <si>
+    <t>collections - Tuples</t>
+  </si>
+  <si>
+    <t>collections - Option</t>
+  </si>
+  <si>
+    <t>collections - yield</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>variable arguments - String*</t>
+  </si>
+  <si>
+    <t>pattern match - switch cases</t>
+  </si>
+  <si>
+    <t>regular expression</t>
+  </si>
+  <si>
+    <t>1. Traits without default implementation
+2. Traits with default implementation</t>
+  </si>
+  <si>
+    <t>Abstract classes</t>
+  </si>
+  <si>
+    <t>classes extension</t>
+  </si>
+  <si>
+    <t>structural types</t>
+  </si>
+  <si>
+    <t>Traits vs Abstract classes</t>
+  </si>
+  <si>
+    <t>1. Traits cannot have constructor arguments. Abstract classes can have</t>
+  </si>
+  <si>
+    <t>What is linearization?</t>
+  </si>
+  <si>
+    <t>Scala allows multiple inheritance using traits using the concept called Linearization</t>
+  </si>
+  <si>
+    <t>Linearization is used to duplicate methods in traits. Scala puts all the traits in a line and resolves the calls to super while going from right to left along the line. This means the order you define traits in class definition is important.</t>
+  </si>
+  <si>
+    <t>Stacked Traits</t>
+  </si>
+  <si>
+    <t>Invariant</t>
+  </si>
+  <si>
+    <t>Covariant</t>
+  </si>
+  <si>
+    <t>Contravariant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if A extends B then 
+List&lt;B&gt; is not sub type of List&lt;A&gt; </t>
+  </si>
+  <si>
+    <t>if A extends B then 
+List&lt;B&gt; is sub class of List&lt;A&gt;
+Scala syntax: [+T]</t>
+  </si>
+  <si>
+    <t>if A extends B then 
+List&lt;A&gt; is sub class of List&lt;B&gt;
+Scala syntax: [-T]</t>
+  </si>
+  <si>
+    <t>using curly braces for method call</t>
+  </si>
+  <si>
+    <t>if method has single argument we can use curly braces to call method.
+For example method is: def method1(value: Int) { - -- }
+calling above method: method1(1), method1{1}</t>
   </si>
 </sst>
 </file>
@@ -823,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -872,6 +1058,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -880,7 +1092,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -915,6 +1127,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1232,64 +1462,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="1" max="1" width="67" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>149</v>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1307,10 +1720,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1369,7 +1782,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1377,7 +1790,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="13"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1828,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1423,7 +1836,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1866,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1461,7 +1874,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1579,7 +1992,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1587,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="13"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
@@ -1665,7 +2078,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1673,7 +2086,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="15"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
@@ -1687,7 +2100,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -1695,7 +2108,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="16"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
@@ -1733,10 +2146,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="20"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
@@ -1872,7 +2285,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="150">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -1880,13 +2293,13 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="135">
-      <c r="A78" s="13"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="13"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="9" t="s">
         <v>139</v>
       </c>
@@ -1906,58 +2319,172 @@
     </row>
     <row r="82" spans="1:2" ht="165">
       <c r="A82" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90">
       <c r="A84" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="120">
       <c r="A85" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="45">
       <c r="A86" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="75">
       <c r="A87" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="150">
       <c r="A88" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60">
+      <c r="A89" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="B90" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105">
+      <c r="A91" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="12" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="14" t="s">
         <v>163</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30">
+      <c r="A99" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="45">
+      <c r="A102" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45">
+      <c r="A103" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/n_scala.xlsx
+++ b/Definitions/n_scala.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="254">
   <si>
     <t>Topics</t>
   </si>
@@ -922,6 +922,133 @@
     <t>if method has single argument we can use curly braces to call method.
 For example method is: def method1(value: Int) { - -- }
 calling above method: method1(1), method1{1}</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Calculate the age of list of persons in scala REPL</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin&gt;scala
+Welcome to Scala 2.12.1 (Java HotSpot(TM) 64-Bit Server VM, Java 1.8.0_65).
+Type in expressions for evaluation. Or try :help.
+scala&gt; import java.util.Calendar
+import java.util.Calendar
+scala&gt; def age(birthYear: Int) = {
+     | Calendar.getInstance().get(Calendar.YEAR) - birthYear
+     | }
+age: (birthYear: Int)Int
+scala&gt; val birthDays = List(1987, 1991, 1992, 1993)
+birthDays: List[Int] = List(1987, 1991, 1992, 1993)
+scala&gt; birthDays.map(age)
+res0: List[Int] = List(30, 26, 25, 24)</t>
+  </si>
+  <si>
+    <t>scala&gt; birthDays.map(year =&gt; Calendar.getInstance().get(Calendar.YEAR) - year)
+res1: List[Int] = List(30, 26, 25, 24)</t>
+  </si>
+  <si>
+    <t>scala&gt; birthDays.map(Calendar.getInstance().get(Calendar.YEAR)-_)
+res2: List[Int] = List(30, 26, 25, 24)</t>
+  </si>
+  <si>
+    <t>map is a transforming function. For Collections, it iterates over collection applying some function just like foreach method does. The difference is that unlike foreach map will collect the return values from the function into a new collection and then return it</t>
+  </si>
+  <si>
+    <t>General implemenation of map will be like this</t>
+  </si>
+  <si>
+    <t>package scala.collections
+import scala.collection.mutable.MutableList
+class Mappable[A](elements: A*) {
+  def map[B](f: A =&gt; B): List[B] = {
+    val result = MutableList[B]()
+    elements.foreach {
+      result += f.apply(_)
+    }
+    result.toList
+  }
+}</t>
+  </si>
+  <si>
+    <t>object MapMethod {
+  def main(args: Array[String]) {
+    val numbers = 1 :: (2 :: (3 :: (4 :: Nil)))
+    val mappable = new Mappable(numbers: _*)
+    val result = mappable.map(_ * 2)
+    println(result)
+  }
+}</t>
+  </si>
+  <si>
+    <t>Output: List(2, 4, 6, 8)</t>
+  </si>
+  <si>
+    <t>map and flatMap</t>
+  </si>
+  <si>
+    <t>we have seen these 2 methods on collections. How ever these are not specific to collections. These are general concept belong to Monads. All classes (List, Set, Map, Option, Either) are monads.</t>
+  </si>
+  <si>
+    <t>Layman's definition for Monad</t>
+  </si>
+  <si>
+    <t>Something that has map and flatMap functions</t>
+  </si>
+  <si>
+    <t>Option class</t>
+  </si>
+  <si>
+    <t>Option sub-classes</t>
+  </si>
+  <si>
+    <t>Some, None</t>
+  </si>
+  <si>
+    <t>declaring value for Option[Int]</t>
+  </si>
+  <si>
+    <t>val options: Option[Int] = Some(1,2,3)</t>
+  </si>
+  <si>
+    <t>Monads</t>
+  </si>
+  <si>
+    <t>for comprehension</t>
+  </si>
+  <si>
+    <t>Type aliases/ Aliasing imports</t>
+  </si>
+  <si>
+    <t>Native XML Support</t>
+  </si>
+  <si>
+    <t>Either class (sub classes: Left, Right)</t>
+  </si>
+  <si>
+    <t>Try class (sub classes: Success, Failure)</t>
+  </si>
+  <si>
+    <t>Tail Recursion</t>
+  </si>
+  <si>
+    <t>Implicits</t>
+  </si>
+  <si>
+    <t>referential transparency</t>
+  </si>
+  <si>
+    <t>Scala programming style</t>
+  </si>
+  <si>
+    <t>http://twitter.github.io/effectivescala/</t>
+  </si>
+  <si>
+    <t>Scala programming style by typesafe</t>
+  </si>
+  <si>
+    <t>http://docs.scala-lang.org/style/</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1219,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1112,6 +1239,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1165,6 +1298,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,10 +1614,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
@@ -1686,6 +1825,61 @@
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1698,11 +1892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1720,10 +1914,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1782,7 +1976,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1790,7 +1984,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +2022,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1836,7 +2030,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +2060,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1874,7 +2068,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2186,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2000,7 +2194,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="8" t="s">
         <v>66</v>
       </c>
@@ -2078,7 +2272,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2086,7 +2280,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="8" t="s">
         <v>86</v>
       </c>
@@ -2100,7 +2294,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2108,7 +2302,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
@@ -2146,10 +2340,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
@@ -2285,7 +2479,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="150">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -2293,13 +2487,13 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="135">
-      <c r="A78" s="19"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="19"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="9" t="s">
         <v>139</v>
       </c>
@@ -2487,23 +2681,123 @@
         <v>221</v>
       </c>
     </row>
+    <row r="104" spans="1:2" ht="255">
+      <c r="A104" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="21"/>
+      <c r="B105" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="21"/>
+      <c r="B106" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="195">
+      <c r="A108" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="120">
+      <c r="A109" s="21"/>
+      <c r="B109" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
+  <mergeCells count="11">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Topics"/>
     <hyperlink ref="B1" location="'Scala-Definitions'!A2" display="Up"/>
+    <hyperlink ref="B115" r:id="rId1"/>
+    <hyperlink ref="B116" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>